--- a/QA/testcases/CPR/Provider/Phar_Patient_App_Create_PCase_Positive_Alien_POE2.xlsx
+++ b/QA/testcases/CPR/Provider/Phar_Patient_App_Create_PCase_Positive_Alien_POE2.xlsx
@@ -15,6 +15,7 @@
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449">
   <si>
     <t>Step No</t>
   </si>
@@ -638,6 +639,45 @@
   </si>
   <si>
     <t>Diagnosis date selected</t>
+  </si>
+  <si>
+    <t>MEDICATION_NAME</t>
+  </si>
+  <si>
+    <t>Type Medication name</t>
+  </si>
+  <si>
+    <t>Medication name entered</t>
+  </si>
+  <si>
+    <t>Select Medication name</t>
+  </si>
+  <si>
+    <t>Medication name selected</t>
+  </si>
+  <si>
+    <t>DOSAGE</t>
+  </si>
+  <si>
+    <t>TestDosage</t>
+  </si>
+  <si>
+    <t>Enter Dosage</t>
+  </si>
+  <si>
+    <t>Dosage entered</t>
+  </si>
+  <si>
+    <t>FREQUENCY</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Enter frequency</t>
+  </si>
+  <si>
+    <t>Frequency entered</t>
   </si>
   <si>
     <t>SELF_LASTPAGE</t>
@@ -1345,9 +1385,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1379,8 +1419,99 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1394,41 +1525,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1437,37 +1537,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1487,35 +1556,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -1523,7 +1563,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1544,20 +1584,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor theme="4" tint="0.799951170384838"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.799920651875362"/>
+        <bgColor theme="4" tint="0.799920651875362"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor theme="4" tint="0.799951170384838"/>
       </patternFill>
     </fill>
     <fill>
@@ -1569,6 +1609,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1592,7 +1656,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,43 +1776,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1656,86 +1786,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1781,6 +1833,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399914548173467"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399914548173467"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1820,11 +1883,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1864,24 +1933,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1899,134 +1962,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2037,7 +2100,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2155,6 +2224,19 @@
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="DataList"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2436,10 +2518,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H250"/>
+  <dimension ref="A1:H255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2764,7 +2846,7 @@
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="6">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -2786,7 +2868,7 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="8">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -2806,7 +2888,7 @@
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="6">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -2830,7 +2912,7 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="8">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -2846,7 +2928,7 @@
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="6">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -2870,7 +2952,7 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="8">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -2894,7 +2976,7 @@
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="6">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -3070,7 +3152,7 @@
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="6">
+      <c r="A30" s="8">
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -3094,7 +3176,7 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="8">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
@@ -3118,7 +3200,7 @@
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="6">
+      <c r="A32" s="8">
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -3142,7 +3224,7 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="8">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -3167,7 +3249,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>14</v>
@@ -3189,7 +3271,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>11</v>
@@ -3209,7 +3291,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>44</v>
@@ -3232,8 +3314,8 @@
       <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="6">
-        <v>37</v>
+      <c r="A37" s="8">
+        <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>67</v>
@@ -3256,8 +3338,8 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="8">
-        <v>38</v>
+      <c r="A38" s="6">
+        <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>44</v>
@@ -3280,8 +3362,8 @@
       <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="6">
-        <v>39</v>
+      <c r="A39" s="8">
+        <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>49</v>
@@ -3304,8 +3386,8 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="8">
-        <v>40</v>
+      <c r="A40" s="6">
+        <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>49</v>
@@ -3328,8 +3410,8 @@
       <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="6">
-        <v>41</v>
+      <c r="A41" s="8">
+        <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>49</v>
@@ -3352,8 +3434,8 @@
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="8">
-        <v>42</v>
+      <c r="A42" s="6">
+        <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>44</v>
@@ -3372,8 +3454,8 @@
       <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="6">
-        <v>43</v>
+      <c r="A43" s="8">
+        <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>49</v>
@@ -3393,7 +3475,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>117</v>
@@ -3413,7 +3495,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>14</v>
@@ -3435,7 +3517,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>11</v>
@@ -3455,7 +3537,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="6">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>14</v>
@@ -3473,7 +3555,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>67</v>
@@ -3497,7 +3579,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="6">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>67</v>
@@ -3521,7 +3603,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>44</v>
@@ -3544,8 +3626,8 @@
       <c r="H50" s="8"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="6">
-        <v>51</v>
+      <c r="A51" s="8">
+        <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>67</v>
@@ -3568,8 +3650,8 @@
       <c r="H51" s="6"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="8">
-        <v>52</v>
+      <c r="A52" s="6">
+        <v>51</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>44</v>
@@ -3592,8 +3674,8 @@
       <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="6">
-        <v>53</v>
+      <c r="A53" s="8">
+        <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>49</v>
@@ -3616,8 +3698,8 @@
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="8">
-        <v>54</v>
+      <c r="A54" s="6">
+        <v>53</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>49</v>
@@ -3640,8 +3722,8 @@
       <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="6">
-        <v>55</v>
+      <c r="A55" s="8">
+        <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>49</v>
@@ -3664,8 +3746,8 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="8">
-        <v>56</v>
+      <c r="A56" s="6">
+        <v>55</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>67</v>
@@ -3688,8 +3770,8 @@
       <c r="H56" s="8"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="6">
-        <v>57</v>
+      <c r="A57" s="8">
+        <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>14</v>
@@ -3711,7 +3793,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>11</v>
@@ -3731,7 +3813,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="6">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>49</v>
@@ -3755,7 +3837,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>11</v>
@@ -3771,7 +3853,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="6">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>152</v>
@@ -3789,7 +3871,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>117</v>
@@ -3813,7 +3895,7 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="6">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>67</v>
@@ -3837,7 +3919,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>117</v>
@@ -3860,8 +3942,8 @@
       <c r="H64" s="8"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="6">
-        <v>65</v>
+      <c r="A65" s="8">
+        <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>67</v>
@@ -3884,8 +3966,8 @@
       <c r="H65" s="6"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="8">
-        <v>66</v>
+      <c r="A66" s="6">
+        <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>49</v>
@@ -3908,8 +3990,8 @@
       <c r="H66" s="8"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="6">
-        <v>67</v>
+      <c r="A67" s="8">
+        <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>14</v>
@@ -3926,8 +4008,8 @@
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8">
-      <c r="A68" s="8">
-        <v>68</v>
+      <c r="A68" s="6">
+        <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>14</v>
@@ -3948,8 +4030,8 @@
       <c r="H68" s="8"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="6">
-        <v>69</v>
+      <c r="A69" s="8">
+        <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>49</v>
@@ -3972,8 +4054,8 @@
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8">
-      <c r="A70" s="8">
-        <v>70</v>
+      <c r="A70" s="6">
+        <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>14</v>
@@ -3994,8 +4076,8 @@
       <c r="H70" s="8"/>
     </row>
     <row r="71" spans="1:8">
-      <c r="A71" s="6">
-        <v>71</v>
+      <c r="A71" s="8">
+        <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>49</v>
@@ -4019,7 +4101,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>49</v>
@@ -4043,7 +4125,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="6">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>14</v>
@@ -4065,7 +4147,7 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
         <v>14</v>
@@ -4087,7 +4169,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="6">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>14</v>
@@ -4109,7 +4191,7 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
         <v>14</v>
@@ -4131,7 +4213,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="6">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>14</v>
@@ -4153,7 +4235,7 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>11</v>
@@ -4172,8 +4254,8 @@
       <c r="H78" s="8"/>
     </row>
     <row r="79" spans="1:8">
-      <c r="A79" s="6">
-        <v>79</v>
+      <c r="A79" s="8">
+        <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>14</v>
@@ -4190,8 +4272,8 @@
       <c r="H79" s="6"/>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="8">
-        <v>80</v>
+      <c r="A80" s="6">
+        <v>79</v>
       </c>
       <c r="B80" s="8" t="s">
         <v>14</v>
@@ -4212,8 +4294,8 @@
       <c r="H80" s="8"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="6">
-        <v>81</v>
+      <c r="A81" s="8">
+        <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>11</v>
@@ -4232,8 +4314,8 @@
       <c r="H81" s="6"/>
     </row>
     <row r="82" spans="1:8">
-      <c r="A82" s="8">
-        <v>82</v>
+      <c r="A82" s="6">
+        <v>81</v>
       </c>
       <c r="B82" s="8" t="s">
         <v>49</v>
@@ -4256,8 +4338,8 @@
       <c r="H82" s="8"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="6">
-        <v>83</v>
+      <c r="A83" s="8">
+        <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>11</v>
@@ -4272,8 +4354,8 @@
       <c r="H83" s="6"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="8">
-        <v>84</v>
+      <c r="A84" s="6">
+        <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
         <v>152</v>
@@ -4290,8 +4372,8 @@
       <c r="H84" s="8"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="6">
-        <v>85</v>
+      <c r="A85" s="8">
+        <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>14</v>
@@ -4313,7 +4395,7 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" s="8" t="s">
         <v>14</v>
@@ -4335,3283 +4417,3389 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="6">
-        <v>87</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H87" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="H87" s="11"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="8">
-        <v>88</v>
-      </c>
-      <c r="B88" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8">
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12">
         <v>5</v>
       </c>
-      <c r="F88" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H88" s="8"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="14"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="6">
-        <v>89</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="H89" s="6"/>
+        <v>88</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="H89" s="15"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="8">
-        <v>90</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8">
-        <v>1</v>
-      </c>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
+        <v>89</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="H90" s="14"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="6">
-        <v>91</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="H91" s="15"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="8">
+        <v>91</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G92" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="H92" s="6"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="8">
+        <v>92</v>
+      </c>
+      <c r="B93" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8">
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8">
+        <v>5</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="8"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="6">
+        <v>93</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="H94" s="6"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="8">
+        <v>94</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8">
         <v>1</v>
       </c>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="6">
-        <v>93</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="H93" s="6"/>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="8">
-        <v>94</v>
-      </c>
-      <c r="B94" s="8" t="s">
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="6">
+        <v>95</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="8">
+        <v>96</v>
+      </c>
+      <c r="B97" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8">
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8">
+        <v>1</v>
+      </c>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="6">
+        <v>97</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="H98" s="6"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="8">
+        <v>98</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8">
         <v>3</v>
       </c>
-      <c r="F94" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="H94" s="8"/>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="6">
-        <v>95</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="G95" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="H95" s="6"/>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="8">
-        <v>96</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="H96" s="8"/>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="6">
-        <v>97</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6">
-        <v>2</v>
-      </c>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="8">
-        <v>98</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="H98" s="8"/>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="6">
-        <v>99</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E99" s="6" t="s">
+      <c r="F99" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="F99" s="6" t="s">
+      <c r="G99" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="G99" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="H99" s="6"/>
+      <c r="H99" s="8"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="8">
-        <v>100</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D100" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="E100" s="8">
-        <v>9889656446</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="G100" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="H100" s="8"/>
+      <c r="G100" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="6">
-        <v>101</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="E101" s="6"/>
-      <c r="F101" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D101" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="G101" s="6" t="s">
+      <c r="E101" s="8"/>
+      <c r="F101" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="H101" s="6"/>
+      <c r="G101" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="H101" s="8"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="8">
-        <v>102</v>
-      </c>
-      <c r="B102" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8">
-        <v>10</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H102" s="8"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6">
+        <v>2</v>
+      </c>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="6">
-        <v>103</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D103" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="E103" s="6"/>
-      <c r="F103" s="6" t="s">
+      <c r="E103" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="G103" s="6" t="s">
+      <c r="F103" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="H103" s="6"/>
+      <c r="G103" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="H103" s="8"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="8">
-        <v>104</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="G104" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="H104" s="8"/>
+      <c r="E104" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="H104" s="6"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="6">
-        <v>105</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E105" s="6"/>
-      <c r="F105" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="G105" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="H105" s="6"/>
+        <v>104</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E105" s="8">
+        <v>9889656446</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H105" s="8"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="8">
+        <v>105</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H106" s="6"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="8">
         <v>106</v>
       </c>
-      <c r="B106" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="G106" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="H106" s="8"/>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="6">
+      <c r="B107" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8">
+        <v>10</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H107" s="8"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="6">
         <v>107</v>
       </c>
-      <c r="B107" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="E107" s="6"/>
-      <c r="F107" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="G107" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="H107" s="6"/>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="8">
+      <c r="B108" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E108" s="6"/>
+      <c r="F108" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H108" s="6"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="8">
         <v>108</v>
       </c>
-      <c r="B108" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="E108" s="8"/>
-      <c r="F108" s="8" t="s">
+      <c r="B109" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="G108" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="H108" s="8"/>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="6">
+      <c r="C109" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="H109" s="8"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="6">
         <v>109</v>
       </c>
-      <c r="B109" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="E109" s="6"/>
-      <c r="F109" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G109" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="H109" s="6"/>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="8">
+      <c r="B110" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H110" s="6"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="8">
         <v>110</v>
       </c>
-      <c r="B110" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D110" s="8" t="s">
+      <c r="B111" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="G111" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G110" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="H110" s="8"/>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="6">
+      <c r="H111" s="8"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="6">
         <v>111</v>
       </c>
-      <c r="B111" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="H111" s="6"/>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="8">
+      <c r="B112" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H112" s="6"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="8">
         <v>112</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B113" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="H113" s="8"/>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="8">
+        <v>113</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="H114" s="6"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="6">
+        <v>114</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="H115" s="8"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="8">
+        <v>115</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="H116" s="6"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="6">
+        <v>116</v>
+      </c>
+      <c r="B117" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8">
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8">
         <v>5</v>
       </c>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-    </row>
-    <row r="113" s="4" customFormat="1" spans="1:8">
-      <c r="A113" s="6">
-        <v>113</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C113" s="6" t="s">
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+    </row>
+    <row r="118" s="4" customFormat="1" spans="1:8">
+      <c r="A118" s="8">
+        <v>117</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="D118" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E113" s="6"/>
-      <c r="F113" s="6" t="s">
+      <c r="E118" s="6"/>
+      <c r="F118" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G113" s="6" t="s">
+      <c r="G118" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H113" s="6"/>
-    </row>
-    <row r="114" s="4" customFormat="1" spans="1:8">
-      <c r="A114" s="8">
-        <v>114</v>
-      </c>
-      <c r="B114" s="8" t="s">
+      <c r="H118" s="6"/>
+    </row>
+    <row r="119" s="4" customFormat="1" spans="1:8">
+      <c r="A119" s="6">
+        <v>118</v>
+      </c>
+      <c r="B119" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
-      <c r="E114" s="8">
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8">
         <v>1</v>
       </c>
-      <c r="F114" s="8"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
-    </row>
-    <row r="115" s="4" customFormat="1" spans="1:8">
-      <c r="A115" s="6">
-        <v>115</v>
-      </c>
-      <c r="B115" s="6" t="s">
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+    </row>
+    <row r="120" s="4" customFormat="1" spans="1:8">
+      <c r="A120" s="8">
+        <v>119</v>
+      </c>
+      <c r="B120" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C115" s="6" t="s">
+      <c r="C120" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D115" s="6" t="s">
+      <c r="D120" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E115" s="6"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
-      <c r="H115" s="6">
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="116" s="4" customFormat="1" spans="1:8">
-      <c r="A116" s="8">
-        <v>116</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C116" s="8" t="s">
+    <row r="121" s="4" customFormat="1" spans="1:8">
+      <c r="A121" s="8">
+        <v>120</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D121" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8" t="s">
+      <c r="E121" s="8"/>
+      <c r="F121" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G116" s="8" t="s">
+      <c r="G121" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H116" s="8"/>
-    </row>
-    <row r="117" s="4" customFormat="1" spans="1:8">
-      <c r="A117" s="6">
-        <v>117</v>
-      </c>
-      <c r="B117" s="6" t="s">
+      <c r="H121" s="8"/>
+    </row>
+    <row r="122" s="4" customFormat="1" spans="1:8">
+      <c r="A122" s="6">
+        <v>121</v>
+      </c>
+      <c r="B122" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6">
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6">
         <v>5</v>
       </c>
-      <c r="F117" s="6"/>
-      <c r="G117" s="6"/>
-      <c r="H117" s="6"/>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="8">
-        <v>118</v>
-      </c>
-      <c r="B118" s="8" t="s">
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="8">
+        <v>122</v>
+      </c>
+      <c r="B123" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8">
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8">
         <v>5</v>
       </c>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="6">
-        <v>119</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="G119" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="H119" s="6"/>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="8">
-        <v>120</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C120" s="8" t="s">
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="6">
+        <v>123</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H124" s="6"/>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="8">
+        <v>124</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D120" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="G120" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="H120" s="8"/>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="6">
-        <v>121</v>
-      </c>
-      <c r="B121" s="6" t="s">
+      <c r="D125" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="H125" s="8"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="6">
+        <v>125</v>
+      </c>
+      <c r="B126" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C121" s="6"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6">
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6">
         <v>10</v>
       </c>
-      <c r="F121" s="6"/>
-      <c r="G121" s="6"/>
-      <c r="H121" s="6"/>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="8">
-        <v>122</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="G122" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="H122" s="8"/>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="6">
-        <v>123</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="F123" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="G123" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="H123" s="6"/>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="8">
-        <v>124</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="F124" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="G124" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="H124" s="8"/>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="6">
-        <v>125</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D125" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="E125" s="6" t="s">
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="8">
+        <v>126</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D127" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="F125" s="6" t="s">
+      <c r="E127" s="8"/>
+      <c r="F127" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="G125" s="6" t="s">
+      <c r="G127" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="H125" s="6"/>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="8">
-        <v>126</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="G126" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="H126" s="8"/>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="6">
-        <v>127</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6">
-        <v>10</v>
-      </c>
-      <c r="F127" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G127" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H127" s="6"/>
+      <c r="H127" s="8"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="8">
-        <v>128</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D128" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F128" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10" t="s">
+      <c r="G128" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="G128" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="H128" s="8"/>
+      <c r="H128" s="6"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="6">
-        <v>129</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C129" s="6"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6">
-        <v>10</v>
-      </c>
-      <c r="F129" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G129" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H129" s="6"/>
+        <v>128</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="H129" s="8"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="8">
-        <v>130</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D130" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="G130" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="H130" s="8"/>
+        <v>129</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="G130" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H130" s="6"/>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="6">
+        <v>130</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H131" s="8"/>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132" s="8">
         <v>131</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B132" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C131" s="6"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6">
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6">
+        <v>10</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H132" s="6"/>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" s="6">
+        <v>132</v>
+      </c>
+      <c r="B133" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="E133" s="16"/>
+      <c r="F133" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="G133" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="H133" s="8"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="8">
+        <v>133</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6">
+        <v>10</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H134" s="6"/>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="8">
+        <v>134</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="H135" s="8"/>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" s="6">
+        <v>135</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6">
         <v>5</v>
       </c>
-      <c r="F131" s="6"/>
-      <c r="G131" s="6"/>
-      <c r="H131" s="6"/>
-    </row>
-    <row r="132" s="4" customFormat="1" spans="1:8">
-      <c r="A132" s="8">
-        <v>132</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C132" s="8" t="s">
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+    </row>
+    <row r="137" s="4" customFormat="1" spans="1:8">
+      <c r="A137" s="8">
+        <v>136</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D132" s="8" t="s">
+      <c r="D137" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8" t="s">
+      <c r="E137" s="8"/>
+      <c r="F137" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G132" s="8" t="s">
+      <c r="G137" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H132" s="8"/>
-    </row>
-    <row r="133" s="4" customFormat="1" spans="1:8">
-      <c r="A133" s="6">
-        <v>133</v>
-      </c>
-      <c r="B133" s="6" t="s">
+      <c r="H137" s="8"/>
+    </row>
+    <row r="138" s="4" customFormat="1" spans="1:8">
+      <c r="A138" s="6">
+        <v>137</v>
+      </c>
+      <c r="B138" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6">
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6">
         <v>1</v>
       </c>
-      <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
-      <c r="H133" s="6"/>
-    </row>
-    <row r="134" s="4" customFormat="1" spans="1:8">
-      <c r="A134" s="8">
-        <v>134</v>
-      </c>
-      <c r="B134" s="8" t="s">
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+    </row>
+    <row r="139" s="4" customFormat="1" spans="1:8">
+      <c r="A139" s="8">
+        <v>138</v>
+      </c>
+      <c r="B139" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C134" s="8" t="s">
+      <c r="C139" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D134" s="8" t="s">
+      <c r="D139" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="8">
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="135" s="4" customFormat="1" spans="1:8">
-      <c r="A135" s="6">
-        <v>135</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C135" s="6" t="s">
+    <row r="140" s="4" customFormat="1" spans="1:8">
+      <c r="A140" s="6">
+        <v>139</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D135" s="6" t="s">
+      <c r="D140" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6" t="s">
+      <c r="E140" s="6"/>
+      <c r="F140" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G135" s="6" t="s">
+      <c r="G140" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H135" s="6"/>
-    </row>
-    <row r="136" s="4" customFormat="1" spans="1:8">
-      <c r="A136" s="8">
-        <v>136</v>
-      </c>
-      <c r="B136" s="8" t="s">
+      <c r="H140" s="6"/>
+    </row>
+    <row r="141" s="4" customFormat="1" spans="1:8">
+      <c r="A141" s="8">
+        <v>140</v>
+      </c>
+      <c r="B141" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8">
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8">
         <v>5</v>
       </c>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
-      <c r="H136" s="8"/>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137" s="6">
-        <v>137</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C137" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D137" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="E137" s="6"/>
-      <c r="F137" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="G137" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="H137" s="6"/>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138" s="8">
-        <v>138</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="E138" s="8"/>
-      <c r="F138" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="G138" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="H138" s="8"/>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="A139" s="6">
-        <v>139</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6">
-        <v>5</v>
-      </c>
-      <c r="F139" s="6"/>
-      <c r="G139" s="6"/>
-      <c r="H139" s="6"/>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" s="8">
-        <v>140</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="G140" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="H140" s="8"/>
-    </row>
-    <row r="141" s="4" customFormat="1" spans="1:8">
-      <c r="A141" s="6">
-        <v>141</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="6">
-        <v>10</v>
-      </c>
-      <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
-      <c r="H141" s="6"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="8"/>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="8">
-        <v>142</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D142" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="G142" s="8"/>
-      <c r="H142" s="8"/>
+        <v>141</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H142" s="6"/>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="6">
+        <v>142</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="H143" s="8"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="8">
         <v>143</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B144" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6">
+      <c r="C144" s="6"/>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6">
         <v>5</v>
       </c>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-    </row>
-    <row r="144" s="4" customFormat="1" spans="1:8">
-      <c r="A144" s="8">
+      <c r="F144" s="6"/>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="6">
         <v>144</v>
       </c>
-      <c r="B144" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8"/>
-      <c r="G144" s="8"/>
-      <c r="H144" s="8"/>
-    </row>
-    <row r="145" s="4" customFormat="1" spans="1:8">
-      <c r="A145" s="6">
+      <c r="B145" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="H145" s="8"/>
+    </row>
+    <row r="146" s="4" customFormat="1" spans="1:8">
+      <c r="A146" s="8">
         <v>145</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B146" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
-      <c r="E145" s="6">
-        <v>1</v>
-      </c>
-      <c r="F145" s="6"/>
-      <c r="G145" s="6"/>
-      <c r="H145" s="6"/>
-    </row>
-    <row r="146" spans="1:8">
-      <c r="A146" s="8">
-        <v>146</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D146" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="E146" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="F146" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="G146" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="H146" s="8"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6">
+        <v>10</v>
+      </c>
+      <c r="F146" s="6"/>
+      <c r="G146" s="6"/>
+      <c r="H146" s="6"/>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="6">
-        <v>147</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C147" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D147" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="E147" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="F147" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G147" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H147" s="6"/>
+      <c r="D147" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="G147" s="8"/>
+      <c r="H147" s="8"/>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="8">
+        <v>147</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6">
+        <v>5</v>
+      </c>
+      <c r="F148" s="6"/>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+    </row>
+    <row r="149" s="4" customFormat="1" spans="1:8">
+      <c r="A149" s="8">
         <v>148</v>
       </c>
-      <c r="B148" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C148" s="8" t="s">
+      <c r="B149" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+    </row>
+    <row r="150" s="4" customFormat="1" spans="1:8">
+      <c r="A150" s="6">
+        <v>149</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6">
+        <v>1</v>
+      </c>
+      <c r="F150" s="6"/>
+      <c r="G150" s="6"/>
+      <c r="H150" s="6"/>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="8">
+        <v>150</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G151" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H151" s="8"/>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152" s="6">
+        <v>151</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C152" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D148" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="E148" s="8"/>
-      <c r="F148" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="G148" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="H148" s="8"/>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="A149" s="6">
-        <v>149</v>
-      </c>
-      <c r="B149" s="6" t="s">
+      <c r="D152" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G152" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H152" s="6"/>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" s="8">
+        <v>152</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E153" s="8"/>
+      <c r="F153" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="G153" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="H153" s="8"/>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="6">
+        <v>153</v>
+      </c>
+      <c r="B154" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6">
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6">
         <v>4</v>
       </c>
-      <c r="F149" s="6" t="s">
+      <c r="F154" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G149" s="6" t="s">
+      <c r="G154" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H149" s="6"/>
-    </row>
-    <row r="150" spans="1:8">
-      <c r="A150" s="8">
-        <v>150</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D150" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="E150" s="8"/>
-      <c r="F150" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="G150" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="H150" s="8"/>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="A151" s="6">
-        <v>151</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C151" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="E151" s="6"/>
-      <c r="F151" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="G151" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="H151" s="6"/>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="A152" s="8">
-        <v>152</v>
-      </c>
-      <c r="B152" s="8" t="s">
+      <c r="H154" s="6"/>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="8">
+        <v>154</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="G155" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="H155" s="8"/>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" s="8">
+        <v>155</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E156" s="6"/>
+      <c r="F156" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="G156" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="H156" s="6"/>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" s="6">
+        <v>156</v>
+      </c>
+      <c r="B157" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C152" s="8"/>
-      <c r="D152" s="8"/>
-      <c r="E152" s="8">
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8">
         <v>1</v>
       </c>
-      <c r="F152" s="8"/>
-      <c r="G152" s="8"/>
-      <c r="H152" s="8"/>
-    </row>
-    <row r="153" s="4" customFormat="1" spans="1:8">
-      <c r="A153" s="6">
-        <v>153</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="E153" s="6"/>
-      <c r="F153" s="6"/>
-      <c r="G153" s="6"/>
-      <c r="H153" s="6"/>
-    </row>
-    <row r="154" s="4" customFormat="1" spans="1:8">
-      <c r="A154" s="8">
-        <v>154</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C154" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D154" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="E154" s="8"/>
-      <c r="F154" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="G154" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="H154" s="8"/>
-    </row>
-    <row r="155" s="4" customFormat="1" spans="1:8">
-      <c r="A155" s="6">
-        <v>155</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C155" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D155" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="E155" s="6"/>
-      <c r="F155" s="6"/>
-      <c r="G155" s="6"/>
-      <c r="H155" s="6"/>
-    </row>
-    <row r="156" s="4" customFormat="1" spans="1:8">
-      <c r="A156" s="8">
-        <v>156</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D156" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="E156" s="8"/>
-      <c r="F156" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="G156" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="H156" s="8"/>
-    </row>
-    <row r="157" s="4" customFormat="1" spans="1:8">
-      <c r="A157" s="6">
-        <v>157</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C157" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D157" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="E157" s="6">
-        <v>200</v>
-      </c>
-      <c r="F157" s="6"/>
-      <c r="G157" s="6"/>
-      <c r="H157" s="6"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
+      <c r="H157" s="8"/>
     </row>
     <row r="158" s="4" customFormat="1" spans="1:8">
       <c r="A158" s="8">
-        <v>158</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C158" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D158" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="E158" s="8"/>
-      <c r="F158" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G158" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H158" s="8"/>
+        <v>157</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
     </row>
     <row r="159" s="4" customFormat="1" spans="1:8">
       <c r="A159" s="6">
-        <v>159</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C159" s="6"/>
-      <c r="D159" s="6"/>
-      <c r="E159" s="6">
-        <v>3</v>
-      </c>
-      <c r="F159" s="6"/>
-      <c r="G159" s="6"/>
-      <c r="H159" s="6"/>
+        <v>158</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E159" s="8"/>
+      <c r="F159" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G159" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H159" s="8"/>
     </row>
     <row r="160" s="4" customFormat="1" spans="1:8">
       <c r="A160" s="8">
-        <v>160</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C160" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D160" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="E160" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="F160" s="8"/>
-      <c r="G160" s="8"/>
-      <c r="H160" s="8"/>
+        <v>159</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="E160" s="6"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="6"/>
     </row>
     <row r="161" s="4" customFormat="1" spans="1:8">
       <c r="A161" s="6">
-        <v>161</v>
-      </c>
-      <c r="B161" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D161" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="E161" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="F161" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="G161" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="H161" s="6"/>
+        <v>160</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="E161" s="8"/>
+      <c r="F161" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G161" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H161" s="8"/>
     </row>
     <row r="162" s="4" customFormat="1" spans="1:8">
       <c r="A162" s="8">
+        <v>161</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E162" s="6">
+        <v>200</v>
+      </c>
+      <c r="F162" s="6"/>
+      <c r="G162" s="6"/>
+      <c r="H162" s="6"/>
+    </row>
+    <row r="163" s="4" customFormat="1" spans="1:8">
+      <c r="A163" s="8">
         <v>162</v>
       </c>
-      <c r="B162" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C162" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D162" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="E162" s="8"/>
-      <c r="F162" s="8" t="s">
+      <c r="B163" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="E163" s="8"/>
+      <c r="F163" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G162" s="8" t="s">
+      <c r="G163" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="H162" s="8"/>
-    </row>
-    <row r="163" s="4" customFormat="1" spans="1:8">
-      <c r="A163" s="6">
+      <c r="H163" s="8"/>
+    </row>
+    <row r="164" s="4" customFormat="1" spans="1:8">
+      <c r="A164" s="6">
         <v>163</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B164" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C163" s="6"/>
-      <c r="D163" s="6"/>
-      <c r="E163" s="6">
+      <c r="C164" s="6"/>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6">
+        <v>3</v>
+      </c>
+      <c r="F164" s="6"/>
+      <c r="G164" s="6"/>
+      <c r="H164" s="6"/>
+    </row>
+    <row r="165" s="4" customFormat="1" spans="1:8">
+      <c r="A165" s="8">
+        <v>164</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="F165" s="8"/>
+      <c r="G165" s="8"/>
+      <c r="H165" s="8"/>
+    </row>
+    <row r="166" s="4" customFormat="1" spans="1:8">
+      <c r="A166" s="6">
+        <v>165</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="G166" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="H166" s="6"/>
+    </row>
+    <row r="167" s="4" customFormat="1" spans="1:8">
+      <c r="A167" s="8">
+        <v>166</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="E167" s="8"/>
+      <c r="F167" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G167" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H167" s="8"/>
+    </row>
+    <row r="168" s="4" customFormat="1" spans="1:8">
+      <c r="A168" s="6">
+        <v>167</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6">
         <v>2</v>
       </c>
-      <c r="F163" s="6"/>
-      <c r="G163" s="6"/>
-      <c r="H163" s="6"/>
-    </row>
-    <row r="164" s="4" customFormat="1" spans="1:8">
-      <c r="A164" s="8">
-        <v>164</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C164" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D164" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="E164" s="8"/>
-      <c r="F164" s="8"/>
-      <c r="G164" s="8"/>
-      <c r="H164" s="8"/>
-    </row>
-    <row r="165" s="4" customFormat="1" spans="1:8">
-      <c r="A165" s="6">
-        <v>165</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D165" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="E165" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F165" s="6"/>
-      <c r="G165" s="6"/>
-      <c r="H165" s="6"/>
-    </row>
-    <row r="166" s="4" customFormat="1" spans="1:8">
-      <c r="A166" s="8">
-        <v>166</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C166" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D166" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="E166" s="8"/>
-      <c r="F166" s="8"/>
-      <c r="G166" s="8"/>
-      <c r="H166" s="8"/>
-    </row>
-    <row r="167" s="4" customFormat="1" spans="1:8">
-      <c r="A167" s="6">
-        <v>167</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C167" s="6"/>
-      <c r="D167" s="6"/>
-      <c r="E167" s="6">
-        <v>10</v>
-      </c>
-      <c r="F167" s="6"/>
-      <c r="G167" s="6"/>
-      <c r="H167" s="6"/>
-    </row>
-    <row r="168" s="4" customFormat="1" spans="1:8">
-      <c r="A168" s="8">
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
+      <c r="H168" s="6"/>
+    </row>
+    <row r="169" s="4" customFormat="1" spans="1:8">
+      <c r="A169" s="8">
         <v>168</v>
       </c>
-      <c r="B168" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D168" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="E168" s="10"/>
-      <c r="F168" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="G168" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="H168" s="8"/>
-    </row>
-    <row r="169" s="4" customFormat="1" spans="1:8">
-      <c r="A169" s="6">
-        <v>169</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C169" s="6"/>
-      <c r="D169" s="6"/>
-      <c r="E169" s="6">
-        <v>10</v>
-      </c>
-      <c r="F169" s="6"/>
-      <c r="G169" s="6"/>
-      <c r="H169" s="6"/>
+      <c r="B169" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="E169" s="8"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="8"/>
+      <c r="H169" s="8"/>
     </row>
     <row r="170" s="4" customFormat="1" spans="1:8">
       <c r="A170" s="8">
-        <v>170</v>
-      </c>
-      <c r="B170" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C170" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D170" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="E170" s="8"/>
-      <c r="F170" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="G170" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="H170" s="8"/>
+        <v>169</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="6"/>
     </row>
     <row r="171" s="4" customFormat="1" spans="1:8">
       <c r="A171" s="6">
-        <v>171</v>
-      </c>
-      <c r="B171" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D171" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="E171" s="6"/>
-      <c r="F171" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="G171" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="H171" s="6"/>
+        <v>170</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="E171" s="8"/>
+      <c r="F171" s="8"/>
+      <c r="G171" s="8"/>
+      <c r="H171" s="8"/>
     </row>
     <row r="172" s="4" customFormat="1" spans="1:8">
       <c r="A172" s="8">
-        <v>172</v>
-      </c>
-      <c r="B172" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C172" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D172" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="E172" s="8"/>
-      <c r="F172" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="G172" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="H172" s="8"/>
+        <v>171</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" s="6"/>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6">
+        <v>10</v>
+      </c>
+      <c r="F172" s="6"/>
+      <c r="G172" s="6"/>
+      <c r="H172" s="6"/>
     </row>
     <row r="173" s="4" customFormat="1" spans="1:8">
       <c r="A173" s="6">
-        <v>173</v>
-      </c>
-      <c r="B173" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C173" s="6"/>
-      <c r="D173" s="6"/>
-      <c r="E173" s="6">
-        <v>5</v>
-      </c>
-      <c r="F173" s="6"/>
-      <c r="G173" s="6"/>
-      <c r="H173" s="6"/>
+        <v>172</v>
+      </c>
+      <c r="B173" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C173" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D173" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="E173" s="16"/>
+      <c r="F173" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="G173" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="H173" s="8"/>
     </row>
     <row r="174" s="4" customFormat="1" spans="1:8">
       <c r="A174" s="8">
-        <v>174</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C174" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D174" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="E174" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="F174" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="G174" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="H174" s="8"/>
+        <v>173</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" s="6"/>
+      <c r="D174" s="6"/>
+      <c r="E174" s="6">
+        <v>10</v>
+      </c>
+      <c r="F174" s="6"/>
+      <c r="G174" s="6"/>
+      <c r="H174" s="6"/>
     </row>
     <row r="175" s="4" customFormat="1" spans="1:8">
       <c r="A175" s="6">
-        <v>175</v>
-      </c>
-      <c r="B175" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D175" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="E175" s="6"/>
-      <c r="F175" s="6"/>
-      <c r="G175" s="6"/>
-      <c r="H175" s="6"/>
+        <v>174</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="E175" s="8"/>
+      <c r="F175" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="G175" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="H175" s="8"/>
     </row>
     <row r="176" s="4" customFormat="1" spans="1:8">
       <c r="A176" s="8">
+        <v>175</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D176" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E176" s="6"/>
+      <c r="F176" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="G176" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="H176" s="6"/>
+    </row>
+    <row r="177" s="4" customFormat="1" spans="1:8">
+      <c r="A177" s="8">
         <v>176</v>
       </c>
-      <c r="B176" s="8" t="s">
+      <c r="B177" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E177" s="8"/>
+      <c r="F177" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="G177" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="H177" s="8"/>
+    </row>
+    <row r="178" s="4" customFormat="1" spans="1:8">
+      <c r="A178" s="6">
+        <v>177</v>
+      </c>
+      <c r="B178" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C176" s="8"/>
-      <c r="D176" s="8"/>
-      <c r="E176" s="8">
+      <c r="C178" s="6"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="6">
+        <v>5</v>
+      </c>
+      <c r="F178" s="6"/>
+      <c r="G178" s="6"/>
+      <c r="H178" s="6"/>
+    </row>
+    <row r="179" s="4" customFormat="1" spans="1:8">
+      <c r="A179" s="8">
+        <v>178</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="F179" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="G179" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="H179" s="8"/>
+    </row>
+    <row r="180" s="4" customFormat="1" spans="1:8">
+      <c r="A180" s="6">
+        <v>179</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D180" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="E180" s="6"/>
+      <c r="F180" s="6"/>
+      <c r="G180" s="6"/>
+      <c r="H180" s="6"/>
+    </row>
+    <row r="181" s="4" customFormat="1" spans="1:8">
+      <c r="A181" s="8">
+        <v>180</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" s="8"/>
+      <c r="D181" s="8"/>
+      <c r="E181" s="8">
         <v>1</v>
       </c>
-      <c r="F176" s="8"/>
-      <c r="G176" s="8"/>
-      <c r="H176" s="8"/>
-    </row>
-    <row r="177" s="4" customFormat="1" spans="1:8">
-      <c r="A177" s="6">
-        <v>177</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="C177" s="6" t="s">
+      <c r="F181" s="8"/>
+      <c r="G181" s="8"/>
+      <c r="H181" s="8"/>
+    </row>
+    <row r="182" s="4" customFormat="1" spans="1:8">
+      <c r="A182" s="6">
+        <v>181</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C182" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D177" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="E177" s="6">
+      <c r="D182" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="E182" s="6">
         <v>10002</v>
       </c>
-      <c r="F177" s="6"/>
-      <c r="G177" s="6"/>
-      <c r="H177" s="6"/>
-    </row>
-    <row r="178" s="4" customFormat="1" spans="1:8">
-      <c r="A178" s="8">
-        <v>178</v>
-      </c>
-      <c r="B178" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C178" s="8" t="s">
+      <c r="F182" s="6"/>
+      <c r="G182" s="6"/>
+      <c r="H182" s="6"/>
+    </row>
+    <row r="183" s="4" customFormat="1" spans="1:8">
+      <c r="A183" s="8">
+        <v>182</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C183" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D178" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="E178" s="8"/>
-      <c r="F178" s="8"/>
-      <c r="G178" s="8"/>
-      <c r="H178" s="8"/>
-    </row>
-    <row r="179" s="4" customFormat="1" spans="1:8">
-      <c r="A179" s="6">
-        <v>179</v>
-      </c>
-      <c r="B179" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C179" s="6"/>
-      <c r="D179" s="6"/>
-      <c r="E179" s="6">
-        <v>1</v>
-      </c>
-      <c r="F179" s="6"/>
-      <c r="G179" s="6"/>
-      <c r="H179" s="6"/>
-    </row>
-    <row r="180" s="4" customFormat="1" spans="1:8">
-      <c r="A180" s="8">
-        <v>180</v>
-      </c>
-      <c r="B180" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="C180" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D180" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="E180" s="8"/>
-      <c r="F180" s="8"/>
-      <c r="G180" s="8"/>
-      <c r="H180" s="8"/>
-    </row>
-    <row r="181" s="4" customFormat="1" spans="1:8">
-      <c r="A181" s="6">
-        <v>181</v>
-      </c>
-      <c r="B181" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C181" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="E181" s="6"/>
-      <c r="F181" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="G181" s="6"/>
-      <c r="H181" s="6"/>
-    </row>
-    <row r="182" s="4" customFormat="1" spans="1:8">
-      <c r="A182" s="8">
-        <v>182</v>
-      </c>
-      <c r="B182" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C182" s="8"/>
-      <c r="D182" s="8"/>
-      <c r="E182" s="8">
-        <v>3</v>
-      </c>
-      <c r="F182" s="8"/>
-      <c r="G182" s="8"/>
-      <c r="H182" s="8"/>
-    </row>
-    <row r="183" s="4" customFormat="1" spans="1:8">
-      <c r="A183" s="6">
-        <v>183</v>
-      </c>
-      <c r="B183" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C183" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D183" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="E183" s="6"/>
-      <c r="F183" s="6"/>
-      <c r="G183" s="6"/>
-      <c r="H183" s="6"/>
+      <c r="D183" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="E183" s="8"/>
+      <c r="F183" s="8"/>
+      <c r="G183" s="8"/>
+      <c r="H183" s="8"/>
     </row>
     <row r="184" s="4" customFormat="1" spans="1:8">
       <c r="A184" s="8">
-        <v>184</v>
-      </c>
-      <c r="B184" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C184" s="8"/>
-      <c r="D184" s="8"/>
-      <c r="E184" s="8">
+      <c r="C184" s="6"/>
+      <c r="D184" s="6"/>
+      <c r="E184" s="6">
         <v>1</v>
       </c>
-      <c r="F184" s="8"/>
-      <c r="G184" s="8"/>
-      <c r="H184" s="8"/>
+      <c r="F184" s="6"/>
+      <c r="G184" s="6"/>
+      <c r="H184" s="6"/>
     </row>
     <row r="185" s="4" customFormat="1" spans="1:8">
       <c r="A185" s="6">
-        <v>185</v>
-      </c>
-      <c r="B185" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C185" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D185" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="E185" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="F185" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G185" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H185" s="6"/>
+        <v>184</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="E185" s="8"/>
+      <c r="F185" s="8"/>
+      <c r="G185" s="8"/>
+      <c r="H185" s="8"/>
     </row>
     <row r="186" s="4" customFormat="1" spans="1:8">
       <c r="A186" s="8">
-        <v>186</v>
-      </c>
-      <c r="B186" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C186" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C186" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D186" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="E186" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="F186" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G186" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H186" s="8"/>
+      <c r="D186" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="E186" s="6"/>
+      <c r="F186" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="G186" s="6"/>
+      <c r="H186" s="6"/>
     </row>
     <row r="187" s="4" customFormat="1" spans="1:8">
       <c r="A187" s="6">
-        <v>187</v>
-      </c>
-      <c r="B187" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C187" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D187" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="E187" s="6"/>
-      <c r="F187" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="G187" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="H187" s="6"/>
+        <v>186</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C187" s="8"/>
+      <c r="D187" s="8"/>
+      <c r="E187" s="8">
+        <v>3</v>
+      </c>
+      <c r="F187" s="8"/>
+      <c r="G187" s="8"/>
+      <c r="H187" s="8"/>
     </row>
     <row r="188" s="4" customFormat="1" spans="1:8">
       <c r="A188" s="8">
-        <v>188</v>
-      </c>
-      <c r="B188" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C188" s="8"/>
-      <c r="D188" s="8"/>
-      <c r="E188" s="8">
-        <v>4</v>
-      </c>
-      <c r="F188" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G188" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H188" s="8"/>
+        <v>187</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="E188" s="6"/>
+      <c r="F188" s="6"/>
+      <c r="G188" s="6"/>
+      <c r="H188" s="6"/>
     </row>
     <row r="189" s="4" customFormat="1" spans="1:8">
       <c r="A189" s="6">
-        <v>189</v>
-      </c>
-      <c r="B189" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C189" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D189" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E189" s="6"/>
-      <c r="F189" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="G189" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="H189" s="6"/>
+        <v>188</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C189" s="8"/>
+      <c r="D189" s="8"/>
+      <c r="E189" s="8">
+        <v>1</v>
+      </c>
+      <c r="F189" s="8"/>
+      <c r="G189" s="8"/>
+      <c r="H189" s="8"/>
     </row>
     <row r="190" s="4" customFormat="1" spans="1:8">
       <c r="A190" s="8">
+        <v>189</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E190" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="G190" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H190" s="6"/>
+    </row>
+    <row r="191" s="4" customFormat="1" spans="1:8">
+      <c r="A191" s="8">
         <v>190</v>
       </c>
-      <c r="B190" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C190" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D190" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E190" s="8"/>
-      <c r="F190" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="G190" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="H190" s="8"/>
-    </row>
-    <row r="191" s="4" customFormat="1" spans="1:8">
-      <c r="A191" s="6">
+      <c r="B191" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E191" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="F191" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G191" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H191" s="8"/>
+    </row>
+    <row r="192" s="4" customFormat="1" spans="1:8">
+      <c r="A192" s="6">
         <v>191</v>
       </c>
-      <c r="B191" s="6" t="s">
+      <c r="B192" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D192" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="E192" s="6"/>
+      <c r="F192" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="G192" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="H192" s="6"/>
+    </row>
+    <row r="193" s="4" customFormat="1" spans="1:8">
+      <c r="A193" s="8">
+        <v>192</v>
+      </c>
+      <c r="B193" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C191" s="6"/>
-      <c r="D191" s="6"/>
-      <c r="E191" s="6">
+      <c r="C193" s="8"/>
+      <c r="D193" s="8"/>
+      <c r="E193" s="8">
+        <v>4</v>
+      </c>
+      <c r="F193" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G193" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H193" s="8"/>
+    </row>
+    <row r="194" s="4" customFormat="1" spans="1:8">
+      <c r="A194" s="6">
+        <v>193</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D194" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E194" s="6"/>
+      <c r="F194" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="G194" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="H194" s="6"/>
+    </row>
+    <row r="195" s="4" customFormat="1" spans="1:8">
+      <c r="A195" s="8">
+        <v>194</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E195" s="8"/>
+      <c r="F195" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="G195" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="H195" s="8"/>
+    </row>
+    <row r="196" s="4" customFormat="1" spans="1:8">
+      <c r="A196" s="6">
+        <v>195</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" s="6"/>
+      <c r="D196" s="6"/>
+      <c r="E196" s="6">
         <v>1</v>
       </c>
-      <c r="F191" s="6"/>
-      <c r="G191" s="6"/>
-      <c r="H191" s="6"/>
-    </row>
-    <row r="192" s="4" customFormat="1" spans="1:8">
-      <c r="A192" s="8">
-        <v>192</v>
-      </c>
-      <c r="B192" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C192" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D192" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="E192" s="8"/>
-      <c r="F192" s="8"/>
-      <c r="G192" s="8"/>
-      <c r="H192" s="8"/>
-    </row>
-    <row r="193" s="4" customFormat="1" spans="1:8">
-      <c r="A193" s="6">
-        <v>193</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C193" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D193" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="E193" s="6"/>
-      <c r="F193" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="G193" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H193" s="6"/>
-    </row>
-    <row r="194" s="4" customFormat="1" spans="1:8">
-      <c r="A194" s="8">
-        <v>194</v>
-      </c>
-      <c r="B194" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C194" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D194" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="E194" s="8"/>
-      <c r="F194" s="8"/>
-      <c r="G194" s="8"/>
-      <c r="H194" s="8"/>
-    </row>
-    <row r="195" s="4" customFormat="1" spans="1:8">
-      <c r="A195" s="6">
-        <v>195</v>
-      </c>
-      <c r="B195" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C195" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D195" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="E195" s="6"/>
-      <c r="F195" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="G195" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H195" s="6"/>
-    </row>
-    <row r="196" s="4" customFormat="1" spans="1:8">
-      <c r="A196" s="8">
+      <c r="F196" s="6"/>
+      <c r="G196" s="6"/>
+      <c r="H196" s="6"/>
+    </row>
+    <row r="197" s="4" customFormat="1" spans="1:8">
+      <c r="A197" s="8">
         <v>196</v>
       </c>
-      <c r="B196" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C196" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D196" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E196" s="8">
-        <v>200</v>
-      </c>
-      <c r="F196" s="8"/>
-      <c r="G196" s="8"/>
-      <c r="H196" s="8"/>
-    </row>
-    <row r="197" s="4" customFormat="1" spans="1:8">
-      <c r="A197" s="6">
-        <v>197</v>
-      </c>
-      <c r="B197" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C197" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D197" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="E197" s="6"/>
-      <c r="F197" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G197" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H197" s="6"/>
+      <c r="B197" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E197" s="8"/>
+      <c r="F197" s="8"/>
+      <c r="G197" s="8"/>
+      <c r="H197" s="8"/>
     </row>
     <row r="198" s="4" customFormat="1" spans="1:8">
       <c r="A198" s="8">
-        <v>198</v>
-      </c>
-      <c r="B198" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C198" s="8"/>
-      <c r="D198" s="8"/>
-      <c r="E198" s="8">
-        <v>3</v>
-      </c>
-      <c r="F198" s="8"/>
-      <c r="G198" s="8"/>
-      <c r="H198" s="8"/>
+        <v>197</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D198" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E198" s="6"/>
+      <c r="F198" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G198" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H198" s="6"/>
     </row>
     <row r="199" s="4" customFormat="1" spans="1:8">
       <c r="A199" s="6">
-        <v>199</v>
-      </c>
-      <c r="B199" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D199" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E199" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="F199" s="6"/>
-      <c r="G199" s="6"/>
-      <c r="H199" s="6"/>
+        <v>198</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E199" s="8"/>
+      <c r="F199" s="8"/>
+      <c r="G199" s="8"/>
+      <c r="H199" s="8"/>
     </row>
     <row r="200" s="4" customFormat="1" spans="1:8">
       <c r="A200" s="8">
-        <v>200</v>
-      </c>
-      <c r="B200" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C200" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D200" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="E200" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="F200" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="G200" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H200" s="8"/>
+        <v>199</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E200" s="6"/>
+      <c r="F200" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G200" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H200" s="6"/>
     </row>
     <row r="201" s="4" customFormat="1" spans="1:8">
       <c r="A201" s="6">
-        <v>201</v>
-      </c>
-      <c r="B201" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C201" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D201" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="E201" s="6"/>
-      <c r="F201" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G201" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H201" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D201" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="E201" s="8">
+        <v>200</v>
+      </c>
+      <c r="F201" s="8"/>
+      <c r="G201" s="8"/>
+      <c r="H201" s="8"/>
     </row>
     <row r="202" s="4" customFormat="1" spans="1:8">
       <c r="A202" s="8">
-        <v>202</v>
-      </c>
-      <c r="B202" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C202" s="8"/>
-      <c r="D202" s="8"/>
-      <c r="E202" s="8">
-        <v>2</v>
-      </c>
-      <c r="F202" s="8"/>
-      <c r="G202" s="8"/>
-      <c r="H202" s="8"/>
+        <v>201</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="E202" s="6"/>
+      <c r="F202" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G202" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H202" s="6"/>
     </row>
     <row r="203" s="4" customFormat="1" spans="1:8">
       <c r="A203" s="6">
-        <v>203</v>
-      </c>
-      <c r="B203" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C203" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D203" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="E203" s="6"/>
-      <c r="F203" s="6"/>
-      <c r="G203" s="6"/>
-      <c r="H203" s="6"/>
+        <v>202</v>
+      </c>
+      <c r="B203" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C203" s="8"/>
+      <c r="D203" s="8"/>
+      <c r="E203" s="8">
+        <v>3</v>
+      </c>
+      <c r="F203" s="8"/>
+      <c r="G203" s="8"/>
+      <c r="H203" s="8"/>
     </row>
     <row r="204" s="4" customFormat="1" spans="1:8">
       <c r="A204" s="8">
+        <v>203</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D204" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E204" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F204" s="6"/>
+      <c r="G204" s="6"/>
+      <c r="H204" s="6"/>
+    </row>
+    <row r="205" s="4" customFormat="1" spans="1:8">
+      <c r="A205" s="8">
         <v>204</v>
       </c>
-      <c r="B204" s="8" t="s">
+      <c r="B205" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E205" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="F205" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="G205" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="H205" s="8"/>
+    </row>
+    <row r="206" s="4" customFormat="1" spans="1:8">
+      <c r="A206" s="6">
+        <v>205</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="E206" s="6"/>
+      <c r="F206" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G206" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H206" s="6"/>
+    </row>
+    <row r="207" s="4" customFormat="1" spans="1:8">
+      <c r="A207" s="8">
+        <v>206</v>
+      </c>
+      <c r="B207" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C207" s="8"/>
+      <c r="D207" s="8"/>
+      <c r="E207" s="8">
+        <v>2</v>
+      </c>
+      <c r="F207" s="8"/>
+      <c r="G207" s="8"/>
+      <c r="H207" s="8"/>
+    </row>
+    <row r="208" s="4" customFormat="1" spans="1:8">
+      <c r="A208" s="6">
+        <v>207</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E208" s="6"/>
+      <c r="F208" s="6"/>
+      <c r="G208" s="6"/>
+      <c r="H208" s="6"/>
+    </row>
+    <row r="209" s="4" customFormat="1" spans="1:8">
+      <c r="A209" s="8">
+        <v>208</v>
+      </c>
+      <c r="B209" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C204" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D204" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="E204" s="8" t="s">
+      <c r="C209" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D209" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="E209" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F204" s="8"/>
-      <c r="G204" s="8"/>
-      <c r="H204" s="8"/>
-    </row>
-    <row r="205" s="4" customFormat="1" spans="1:8">
-      <c r="A205" s="6">
-        <v>205</v>
-      </c>
-      <c r="B205" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C205" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D205" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="E205" s="6"/>
-      <c r="F205" s="6"/>
-      <c r="G205" s="6"/>
-      <c r="H205" s="6"/>
-    </row>
-    <row r="206" s="4" customFormat="1" spans="1:8">
-      <c r="A206" s="8">
-        <v>206</v>
-      </c>
-      <c r="B206" s="8" t="s">
+      <c r="F209" s="8"/>
+      <c r="G209" s="8"/>
+      <c r="H209" s="8"/>
+    </row>
+    <row r="210" s="4" customFormat="1" spans="1:8">
+      <c r="A210" s="6">
+        <v>209</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E210" s="6"/>
+      <c r="F210" s="6"/>
+      <c r="G210" s="6"/>
+      <c r="H210" s="6"/>
+    </row>
+    <row r="211" s="4" customFormat="1" spans="1:8">
+      <c r="A211" s="8">
+        <v>210</v>
+      </c>
+      <c r="B211" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C206" s="8"/>
-      <c r="D206" s="8"/>
-      <c r="E206" s="8">
+      <c r="C211" s="8"/>
+      <c r="D211" s="8"/>
+      <c r="E211" s="8">
         <v>10</v>
       </c>
-      <c r="F206" s="8"/>
-      <c r="G206" s="8"/>
-      <c r="H206" s="8"/>
-    </row>
-    <row r="207" s="4" customFormat="1" spans="1:8">
-      <c r="A207" s="6">
-        <v>207</v>
-      </c>
-      <c r="B207" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C207" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D207" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="E207" s="10"/>
-      <c r="F207" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="G207" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="H207" s="6"/>
-    </row>
-    <row r="208" s="4" customFormat="1" spans="1:8">
-      <c r="A208" s="8">
-        <v>208</v>
-      </c>
-      <c r="B208" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C208" s="8"/>
-      <c r="D208" s="8"/>
-      <c r="E208" s="8">
-        <v>10</v>
-      </c>
-      <c r="F208" s="8"/>
-      <c r="G208" s="8"/>
-      <c r="H208" s="8"/>
-    </row>
-    <row r="209" s="4" customFormat="1" spans="1:8">
-      <c r="A209" s="6">
-        <v>209</v>
-      </c>
-      <c r="B209" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C209" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D209" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="E209" s="6"/>
-      <c r="F209" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="G209" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="H209" s="6"/>
-    </row>
-    <row r="210" s="4" customFormat="1" spans="1:8">
-      <c r="A210" s="8">
-        <v>210</v>
-      </c>
-      <c r="B210" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="C210" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D210" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="E210" s="8"/>
-      <c r="F210" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="G210" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="H210" s="8"/>
-    </row>
-    <row r="211" s="4" customFormat="1" spans="1:8">
-      <c r="A211" s="6">
-        <v>211</v>
-      </c>
-      <c r="B211" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C211" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D211" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E211" s="6"/>
-      <c r="F211" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="G211" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="H211" s="6"/>
+      <c r="F211" s="8"/>
+      <c r="G211" s="8"/>
+      <c r="H211" s="8"/>
     </row>
     <row r="212" s="4" customFormat="1" spans="1:8">
       <c r="A212" s="8">
-        <v>212</v>
-      </c>
-      <c r="B212" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C212" s="8"/>
-      <c r="D212" s="8"/>
-      <c r="E212" s="8">
-        <v>5</v>
-      </c>
-      <c r="F212" s="8"/>
-      <c r="G212" s="8"/>
-      <c r="H212" s="8"/>
+        <v>211</v>
+      </c>
+      <c r="B212" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C212" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D212" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="E212" s="16"/>
+      <c r="F212" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="G212" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="H212" s="6"/>
     </row>
     <row r="213" s="4" customFormat="1" spans="1:8">
       <c r="A213" s="6">
-        <v>213</v>
-      </c>
-      <c r="B213" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C213" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D213" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="E213" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="F213" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="G213" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H213" s="6"/>
+        <v>212</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C213" s="8"/>
+      <c r="D213" s="8"/>
+      <c r="E213" s="8">
+        <v>10</v>
+      </c>
+      <c r="F213" s="8"/>
+      <c r="G213" s="8"/>
+      <c r="H213" s="8"/>
     </row>
     <row r="214" s="4" customFormat="1" spans="1:8">
       <c r="A214" s="8">
-        <v>214</v>
-      </c>
-      <c r="B214" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C214" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D214" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="E214" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="F214" s="8"/>
-      <c r="G214" s="8"/>
-      <c r="H214" s="8"/>
+        <v>213</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E214" s="6"/>
+      <c r="F214" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G214" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H214" s="6"/>
     </row>
     <row r="215" s="4" customFormat="1" spans="1:8">
       <c r="A215" s="6">
-        <v>215</v>
-      </c>
-      <c r="B215" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C215" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D215" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C215" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E215" s="8"/>
+      <c r="F215" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="G215" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="E215" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="F215" s="6"/>
-      <c r="G215" s="6"/>
-      <c r="H215" s="6"/>
+      <c r="H215" s="8"/>
     </row>
     <row r="216" s="4" customFormat="1" spans="1:8">
       <c r="A216" s="8">
-        <v>216</v>
-      </c>
-      <c r="B216" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C216" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D216" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="E216" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F216" s="8"/>
-      <c r="G216" s="8"/>
-      <c r="H216" s="8"/>
+        <v>215</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C216" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D216" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="E216" s="6"/>
+      <c r="F216" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="G216" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="H216" s="6"/>
     </row>
     <row r="217" s="4" customFormat="1" spans="1:8">
       <c r="A217" s="6">
-        <v>217</v>
-      </c>
-      <c r="B217" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C217" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D217" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="E217" s="6">
-        <v>2</v>
-      </c>
-      <c r="F217" s="6"/>
-      <c r="G217" s="6"/>
-      <c r="H217" s="6"/>
+        <v>216</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C217" s="8"/>
+      <c r="D217" s="8"/>
+      <c r="E217" s="8">
+        <v>5</v>
+      </c>
+      <c r="F217" s="8"/>
+      <c r="G217" s="8"/>
+      <c r="H217" s="8"/>
     </row>
     <row r="218" s="4" customFormat="1" spans="1:8">
       <c r="A218" s="8">
+        <v>217</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D218" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="E218" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F218" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="G218" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="H218" s="6"/>
+    </row>
+    <row r="219" s="4" customFormat="1" spans="1:8">
+      <c r="A219" s="8">
         <v>218</v>
       </c>
-      <c r="B218" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="C218" s="8" t="s">
+      <c r="B219" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C219" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D218" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="E218" s="8">
+      <c r="D219" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="E219" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="F219" s="8"/>
+      <c r="G219" s="8"/>
+      <c r="H219" s="8"/>
+    </row>
+    <row r="220" s="4" customFormat="1" spans="1:8">
+      <c r="A220" s="6">
+        <v>219</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="E220" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="F220" s="6"/>
+      <c r="G220" s="6"/>
+      <c r="H220" s="6"/>
+    </row>
+    <row r="221" s="4" customFormat="1" spans="1:8">
+      <c r="A221" s="8">
+        <v>220</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C221" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D221" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="E221" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F221" s="8"/>
+      <c r="G221" s="8"/>
+      <c r="H221" s="8"/>
+    </row>
+    <row r="222" s="4" customFormat="1" spans="1:8">
+      <c r="A222" s="6">
+        <v>221</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="E222" s="6">
+        <v>2</v>
+      </c>
+      <c r="F222" s="6"/>
+      <c r="G222" s="6"/>
+      <c r="H222" s="6"/>
+    </row>
+    <row r="223" s="4" customFormat="1" spans="1:8">
+      <c r="A223" s="8">
+        <v>222</v>
+      </c>
+      <c r="B223" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C223" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D223" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="E223" s="8">
         <v>10002</v>
       </c>
-      <c r="F218" s="8"/>
-      <c r="G218" s="8"/>
-      <c r="H218" s="8"/>
-    </row>
-    <row r="219" s="4" customFormat="1" spans="1:8">
-      <c r="A219" s="6">
-        <v>219</v>
-      </c>
-      <c r="B219" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C219" s="6" t="s">
+      <c r="F223" s="8"/>
+      <c r="G223" s="8"/>
+      <c r="H223" s="8"/>
+    </row>
+    <row r="224" s="4" customFormat="1" spans="1:8">
+      <c r="A224" s="6">
+        <v>223</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C224" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D219" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="E219" s="6"/>
-      <c r="F219" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="G219" s="6"/>
-      <c r="H219" s="6"/>
-    </row>
-    <row r="220" s="4" customFormat="1" spans="1:8">
-      <c r="A220" s="8">
-        <v>220</v>
-      </c>
-      <c r="B220" s="8" t="s">
+      <c r="D224" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="E224" s="6"/>
+      <c r="F224" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="G224" s="6"/>
+      <c r="H224" s="6"/>
+    </row>
+    <row r="225" s="4" customFormat="1" spans="1:8">
+      <c r="A225" s="8">
+        <v>224</v>
+      </c>
+      <c r="B225" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C220" s="8"/>
-      <c r="D220" s="8"/>
-      <c r="E220" s="8">
+      <c r="C225" s="8"/>
+      <c r="D225" s="8"/>
+      <c r="E225" s="8">
         <v>3</v>
       </c>
-      <c r="F220" s="8"/>
-      <c r="G220" s="8"/>
-      <c r="H220" s="8"/>
-    </row>
-    <row r="221" s="4" customFormat="1" spans="1:8">
-      <c r="A221" s="6">
-        <v>221</v>
-      </c>
-      <c r="B221" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C221" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D221" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="E221" s="6"/>
-      <c r="F221" s="6"/>
-      <c r="G221" s="6"/>
-      <c r="H221" s="6"/>
-    </row>
-    <row r="222" s="4" customFormat="1" spans="1:8">
-      <c r="A222" s="8">
-        <v>222</v>
-      </c>
-      <c r="B222" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C222" s="8"/>
-      <c r="D222" s="8"/>
-      <c r="E222" s="8">
-        <v>1</v>
-      </c>
-      <c r="F222" s="8"/>
-      <c r="G222" s="8"/>
-      <c r="H222" s="8"/>
-    </row>
-    <row r="223" s="4" customFormat="1" spans="1:8">
-      <c r="A223" s="6">
-        <v>223</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C223" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D223" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="E223" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="F223" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G223" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="H223" s="6"/>
-    </row>
-    <row r="224" s="4" customFormat="1" spans="1:8">
-      <c r="A224" s="8">
-        <v>224</v>
-      </c>
-      <c r="B224" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C224" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D224" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="E224" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="F224" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G224" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H224" s="8"/>
-    </row>
-    <row r="225" s="4" customFormat="1" spans="1:8">
-      <c r="A225" s="6">
-        <v>225</v>
-      </c>
-      <c r="B225" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C225" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D225" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="E225" s="6"/>
-      <c r="F225" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="G225" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="H225" s="6"/>
+      <c r="F225" s="8"/>
+      <c r="G225" s="8"/>
+      <c r="H225" s="8"/>
     </row>
     <row r="226" s="4" customFormat="1" spans="1:8">
       <c r="A226" s="8">
-        <v>226</v>
-      </c>
-      <c r="B226" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C226" s="8"/>
-      <c r="D226" s="8"/>
-      <c r="E226" s="8">
-        <v>4</v>
-      </c>
-      <c r="F226" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G226" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H226" s="8"/>
+        <v>225</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D226" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="E226" s="6"/>
+      <c r="F226" s="6"/>
+      <c r="G226" s="6"/>
+      <c r="H226" s="6"/>
     </row>
     <row r="227" s="4" customFormat="1" spans="1:8">
       <c r="A227" s="6">
-        <v>227</v>
-      </c>
-      <c r="B227" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C227" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D227" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="E227" s="6"/>
-      <c r="F227" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="G227" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="H227" s="6"/>
+        <v>226</v>
+      </c>
+      <c r="B227" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C227" s="8"/>
+      <c r="D227" s="8"/>
+      <c r="E227" s="8">
+        <v>1</v>
+      </c>
+      <c r="F227" s="8"/>
+      <c r="G227" s="8"/>
+      <c r="H227" s="8"/>
     </row>
     <row r="228" s="4" customFormat="1" spans="1:8">
       <c r="A228" s="8">
-        <v>228</v>
-      </c>
-      <c r="B228" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C228" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D228" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E228" s="8"/>
-      <c r="F228" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="G228" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D228" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="H228" s="8"/>
+      <c r="E228" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F228" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="G228" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H228" s="6"/>
     </row>
     <row r="229" s="4" customFormat="1" spans="1:8">
       <c r="A229" s="6">
-        <v>229</v>
-      </c>
-      <c r="B229" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C229" s="6"/>
-      <c r="D229" s="6"/>
-      <c r="E229" s="6">
-        <v>1</v>
-      </c>
-      <c r="F229" s="6"/>
-      <c r="G229" s="6"/>
-      <c r="H229" s="6"/>
+        <v>228</v>
+      </c>
+      <c r="B229" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C229" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D229" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E229" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="F229" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G229" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H229" s="8"/>
     </row>
     <row r="230" s="4" customFormat="1" spans="1:8">
       <c r="A230" s="8">
-        <v>230</v>
-      </c>
-      <c r="B230" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C230" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D230" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="E230" s="8"/>
-      <c r="F230" s="8"/>
-      <c r="G230" s="8"/>
-      <c r="H230" s="8"/>
+        <v>229</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="E230" s="6"/>
+      <c r="F230" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="G230" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="H230" s="6"/>
     </row>
     <row r="231" s="4" customFormat="1" spans="1:8">
       <c r="A231" s="6">
-        <v>231</v>
-      </c>
-      <c r="B231" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C231" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D231" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="E231" s="6"/>
-      <c r="F231" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="G231" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="H231" s="6"/>
+        <v>230</v>
+      </c>
+      <c r="B231" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C231" s="8"/>
+      <c r="D231" s="8"/>
+      <c r="E231" s="8">
+        <v>4</v>
+      </c>
+      <c r="F231" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G231" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H231" s="8"/>
     </row>
     <row r="232" s="4" customFormat="1" spans="1:8">
       <c r="A232" s="8">
+        <v>231</v>
+      </c>
+      <c r="B232" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D232" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E232" s="6"/>
+      <c r="F232" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="G232" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="H232" s="6"/>
+    </row>
+    <row r="233" s="4" customFormat="1" spans="1:8">
+      <c r="A233" s="8">
         <v>232</v>
       </c>
-      <c r="B232" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C232" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D232" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="E232" s="8"/>
-      <c r="F232" s="8"/>
-      <c r="G232" s="8"/>
-      <c r="H232" s="8"/>
-    </row>
-    <row r="233" s="4" customFormat="1" spans="1:8">
-      <c r="A233" s="6">
+      <c r="B233" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D233" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E233" s="8"/>
+      <c r="F233" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="G233" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="H233" s="8"/>
+    </row>
+    <row r="234" s="4" customFormat="1" spans="1:8">
+      <c r="A234" s="6">
         <v>233</v>
       </c>
-      <c r="B233" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C233" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D233" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="E233" s="6"/>
-      <c r="F233" s="6" t="s">
+      <c r="B234" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C234" s="6"/>
+      <c r="D234" s="6"/>
+      <c r="E234" s="6">
+        <v>1</v>
+      </c>
+      <c r="F234" s="6"/>
+      <c r="G234" s="6"/>
+      <c r="H234" s="6"/>
+    </row>
+    <row r="235" s="4" customFormat="1" spans="1:8">
+      <c r="A235" s="8">
+        <v>234</v>
+      </c>
+      <c r="B235" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C235" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D235" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E235" s="8"/>
+      <c r="F235" s="8"/>
+      <c r="G235" s="8"/>
+      <c r="H235" s="8"/>
+    </row>
+    <row r="236" s="4" customFormat="1" spans="1:8">
+      <c r="A236" s="6">
+        <v>235</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C236" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D236" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="E236" s="6"/>
+      <c r="F236" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G233" s="6" t="s">
+      <c r="G236" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="H233" s="6"/>
-    </row>
-    <row r="234" s="4" customFormat="1" spans="1:8">
-      <c r="A234" s="8">
-        <v>234</v>
-      </c>
-      <c r="B234" s="8" t="s">
+      <c r="H236" s="6"/>
+    </row>
+    <row r="237" s="4" customFormat="1" spans="1:8">
+      <c r="A237" s="8">
+        <v>236</v>
+      </c>
+      <c r="B237" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D237" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E237" s="8"/>
+      <c r="F237" s="8"/>
+      <c r="G237" s="8"/>
+      <c r="H237" s="8"/>
+    </row>
+    <row r="238" s="4" customFormat="1" spans="1:8">
+      <c r="A238" s="6">
+        <v>237</v>
+      </c>
+      <c r="B238" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E238" s="6"/>
+      <c r="F238" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G238" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H238" s="6"/>
+    </row>
+    <row r="239" s="4" customFormat="1" spans="1:8">
+      <c r="A239" s="8">
+        <v>238</v>
+      </c>
+      <c r="B239" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C234" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D234" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="E234" s="8">
+      <c r="C239" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D239" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="E239" s="8">
         <v>200</v>
       </c>
-      <c r="F234" s="8"/>
-      <c r="G234" s="8"/>
-      <c r="H234" s="8"/>
-    </row>
-    <row r="235" s="4" customFormat="1" spans="1:8">
-      <c r="A235" s="6">
-        <v>235</v>
-      </c>
-      <c r="B235" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C235" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D235" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="E235" s="6"/>
-      <c r="F235" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G235" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H235" s="6"/>
-    </row>
-    <row r="236" s="4" customFormat="1" spans="1:8">
-      <c r="A236" s="8">
-        <v>236</v>
-      </c>
-      <c r="B236" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C236" s="8"/>
-      <c r="D236" s="8"/>
-      <c r="E236" s="8">
-        <v>3</v>
-      </c>
-      <c r="F236" s="8"/>
-      <c r="G236" s="8"/>
-      <c r="H236" s="8"/>
-    </row>
-    <row r="237" s="4" customFormat="1" spans="1:8">
-      <c r="A237" s="6">
-        <v>237</v>
-      </c>
-      <c r="B237" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C237" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D237" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E237" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="F237" s="6"/>
-      <c r="G237" s="6"/>
-      <c r="H237" s="6"/>
-    </row>
-    <row r="238" s="4" customFormat="1" spans="1:8">
-      <c r="A238" s="8">
-        <v>238</v>
-      </c>
-      <c r="B238" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="C238" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D238" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="E238" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="F238" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="G238" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="H238" s="8"/>
-    </row>
-    <row r="239" s="4" customFormat="1" spans="1:8">
-      <c r="A239" s="6">
-        <v>239</v>
-      </c>
-      <c r="B239" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C239" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D239" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="E239" s="6"/>
-      <c r="F239" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G239" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H239" s="6"/>
+      <c r="F239" s="8"/>
+      <c r="G239" s="8"/>
+      <c r="H239" s="8"/>
     </row>
     <row r="240" s="4" customFormat="1" spans="1:8">
       <c r="A240" s="8">
-        <v>240</v>
-      </c>
-      <c r="B240" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C240" s="8"/>
-      <c r="D240" s="8"/>
-      <c r="E240" s="8">
-        <v>2</v>
-      </c>
-      <c r="F240" s="8"/>
-      <c r="G240" s="8"/>
-      <c r="H240" s="8"/>
+        <v>239</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="E240" s="6"/>
+      <c r="F240" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G240" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H240" s="6"/>
     </row>
     <row r="241" s="4" customFormat="1" spans="1:8">
       <c r="A241" s="6">
-        <v>241</v>
-      </c>
-      <c r="B241" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C241" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D241" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="E241" s="6"/>
-      <c r="F241" s="6"/>
-      <c r="G241" s="6"/>
-      <c r="H241" s="6"/>
+        <v>240</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C241" s="8"/>
+      <c r="D241" s="8"/>
+      <c r="E241" s="8">
+        <v>3</v>
+      </c>
+      <c r="F241" s="8"/>
+      <c r="G241" s="8"/>
+      <c r="H241" s="8"/>
     </row>
     <row r="242" s="4" customFormat="1" spans="1:8">
       <c r="A242" s="8">
-        <v>242</v>
-      </c>
-      <c r="B242" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B242" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C242" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D242" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="E242" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F242" s="8"/>
-      <c r="G242" s="8"/>
-      <c r="H242" s="8"/>
+      <c r="C242" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E242" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F242" s="6"/>
+      <c r="G242" s="6"/>
+      <c r="H242" s="6"/>
     </row>
     <row r="243" s="4" customFormat="1" spans="1:8">
       <c r="A243" s="6">
-        <v>243</v>
-      </c>
-      <c r="B243" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C243" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D243" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="E243" s="6"/>
-      <c r="F243" s="6"/>
-      <c r="G243" s="6"/>
-      <c r="H243" s="6"/>
+        <v>242</v>
+      </c>
+      <c r="B243" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D243" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E243" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="F243" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="G243" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="H243" s="8"/>
     </row>
     <row r="244" s="4" customFormat="1" spans="1:8">
       <c r="A244" s="8">
-        <v>244</v>
-      </c>
-      <c r="B244" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C244" s="8"/>
-      <c r="D244" s="8"/>
-      <c r="E244" s="8">
-        <v>10</v>
-      </c>
-      <c r="F244" s="8"/>
-      <c r="G244" s="8"/>
-      <c r="H244" s="8"/>
+        <v>243</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D244" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="E244" s="6"/>
+      <c r="F244" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G244" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H244" s="6"/>
     </row>
     <row r="245" s="4" customFormat="1" spans="1:8">
       <c r="A245" s="6">
-        <v>245</v>
-      </c>
-      <c r="B245" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C245" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D245" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="E245" s="10"/>
-      <c r="F245" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="G245" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="H245" s="6"/>
+        <v>244</v>
+      </c>
+      <c r="B245" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C245" s="8"/>
+      <c r="D245" s="8"/>
+      <c r="E245" s="8">
+        <v>2</v>
+      </c>
+      <c r="F245" s="8"/>
+      <c r="G245" s="8"/>
+      <c r="H245" s="8"/>
     </row>
     <row r="246" s="4" customFormat="1" spans="1:8">
       <c r="A246" s="8">
+        <v>245</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E246" s="6"/>
+      <c r="F246" s="6"/>
+      <c r="G246" s="6"/>
+      <c r="H246" s="6"/>
+    </row>
+    <row r="247" s="4" customFormat="1" spans="1:8">
+      <c r="A247" s="8">
         <v>246</v>
       </c>
-      <c r="B246" s="8" t="s">
+      <c r="B247" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D247" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="E247" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F247" s="8"/>
+      <c r="G247" s="8"/>
+      <c r="H247" s="8"/>
+    </row>
+    <row r="248" s="4" customFormat="1" spans="1:8">
+      <c r="A248" s="6">
+        <v>247</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D248" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E248" s="6"/>
+      <c r="F248" s="6"/>
+      <c r="G248" s="6"/>
+      <c r="H248" s="6"/>
+    </row>
+    <row r="249" s="4" customFormat="1" spans="1:8">
+      <c r="A249" s="8">
+        <v>248</v>
+      </c>
+      <c r="B249" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C246" s="8"/>
-      <c r="D246" s="8"/>
-      <c r="E246" s="8">
+      <c r="C249" s="8"/>
+      <c r="D249" s="8"/>
+      <c r="E249" s="8">
         <v>10</v>
       </c>
-      <c r="F246" s="8"/>
-      <c r="G246" s="8"/>
-      <c r="H246" s="8"/>
-    </row>
-    <row r="247" s="4" customFormat="1" spans="1:8">
-      <c r="A247" s="6">
-        <v>247</v>
-      </c>
-      <c r="B247" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="C247" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D247" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="E247" s="6"/>
-      <c r="F247" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="G247" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="H247" s="6"/>
-    </row>
-    <row r="248" s="4" customFormat="1" spans="1:8">
-      <c r="A248" s="8">
-        <v>248</v>
-      </c>
-      <c r="B248" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="C248" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D248" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="E248" s="8"/>
-      <c r="F248" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="G248" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="H248" s="8"/>
-    </row>
-    <row r="249" spans="1:8">
-      <c r="A249" s="6">
+      <c r="F249" s="8"/>
+      <c r="G249" s="8"/>
+      <c r="H249" s="8"/>
+    </row>
+    <row r="250" s="4" customFormat="1" spans="1:8">
+      <c r="A250" s="6">
         <v>249</v>
       </c>
-      <c r="B249" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C249" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D249" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="E249" s="6"/>
-      <c r="F249" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="G249" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="H249" s="6"/>
-    </row>
-    <row r="250" spans="1:8">
-      <c r="A250" s="8">
+      <c r="B250" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C250" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D250" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="E250" s="16"/>
+      <c r="F250" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="G250" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="H250" s="6"/>
+    </row>
+    <row r="251" s="4" customFormat="1" spans="1:8">
+      <c r="A251" s="8">
         <v>250</v>
       </c>
-      <c r="B250" s="8" t="s">
+      <c r="B251" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C250" s="8"/>
-      <c r="D250" s="8"/>
-      <c r="E250" s="8">
+      <c r="C251" s="8"/>
+      <c r="D251" s="8"/>
+      <c r="E251" s="8">
+        <v>10</v>
+      </c>
+      <c r="F251" s="8"/>
+      <c r="G251" s="8"/>
+      <c r="H251" s="8"/>
+    </row>
+    <row r="252" s="4" customFormat="1" spans="1:8">
+      <c r="A252" s="6">
+        <v>251</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D252" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E252" s="6"/>
+      <c r="F252" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G252" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="H252" s="6"/>
+    </row>
+    <row r="253" s="4" customFormat="1" spans="1:8">
+      <c r="A253" s="8">
+        <v>252</v>
+      </c>
+      <c r="B253" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C253" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D253" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E253" s="8"/>
+      <c r="F253" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="G253" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="H253" s="8"/>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="A254" s="8">
+        <v>253</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D254" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="E254" s="6"/>
+      <c r="F254" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="G254" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="H254" s="6"/>
+    </row>
+    <row r="255" spans="1:8">
+      <c r="A255" s="6">
+        <v>254</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C255" s="8"/>
+      <c r="D255" s="8"/>
+      <c r="E255" s="8">
         <v>4</v>
       </c>
-      <c r="F250" s="8"/>
-      <c r="G250" s="8"/>
-      <c r="H250" s="8"/>
+      <c r="F255" s="8"/>
+      <c r="G255" s="8"/>
+      <c r="H255" s="8"/>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B63 B141 B172 B173 B178 B211 B212 B215 B216 B217 B218 B3:B33 B34:B61 B65:B127 B129:B140 B142:B143 B144:B145 B153:B162 B163:B167 B169:B171 B174:B175 B176:B177 B179:B180 B181:B182 B183:B184 B192:B201 B202:B206 B208:B210 B213:B214 B219:B220 B221:B222 B230:B239 B240:B244 B246:B248 B249:B1048576">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B63 B146 B177 B178 B183 B216 B217 B220 B221 B222 B223 B3:B33 B34:B61 B65:B86 B92:B132 B134:B145 B147:B148 B149:B150 B158:B167 B168:B172 B174:B176 B179:B180 B181:B182 B184:B185 B186:B187 B188:B189 B197:B206 B207:B211 B213:B215 B218:B219 B224:B225 B226:B227 B235:B244 B245:B249 B251:B253 B254:B1048576">
       <formula1>DataList!$C$2:$C$109</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
@@ -7620,14 +7808,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62 B64">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B128 C128 B168 C168 B207 C207 B245 C245">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B133 C133 B173 C173 B212 C212 B250 C250">
       <formula1>[3]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C172 C178 C179 C211 C217 C218 C1:C33 C34:C127 C129:C140 C141:C143 C144:C145 C153:C162 C163:C167 C169:C171 C173:C175 C176:C177 C181:C182 C183:C184 C192:C201 C202:C206 C208:C210 C212:C214 C215:C216 C219:C220 C221:C222 C230:C239 C240:C244 C246:C248 C249:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C177 C183 C184 C216 C222 C223 C1:C33 C34:C86 C92:C132 C134:C145 C146:C148 C149:C150 C158:C167 C168:C172 C174:C176 C178:C180 C181:C182 C186:C187 C188:C189 C197:C206 C207:C211 C213:C215 C217:C219 C220:C221 C224:C225 C226:C227 C235:C244 C245:C249 C251:C253 C254:C1048576">
       <formula1>DataList!$A$2:$A$14</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B146:B152 B185:B191 B223:B229">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B151:B157 B190:B196 B228:B234">
       <formula1>[1]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B87:C91">
+      <formula1>[5]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7657,7 +7848,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7665,20 +7856,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="C3" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -7689,20 +7880,20 @@
         <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="C6" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -7710,47 +7901,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C8" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="C10" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="C11" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -7760,12 +7951,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -7775,45 +7966,45 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -7823,7 +8014,7 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -7833,152 +8024,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -7988,214 +8179,214 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
     </row>
     <row r="100" spans="3:3">
@@ -8205,7 +8396,7 @@
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Provider/Phar_Patient_App_Create_PCase_Positive_Alien_POE2.xlsx
+++ b/QA/testcases/CPR/Provider/Phar_Patient_App_Create_PCase_Positive_Alien_POE2.xlsx
@@ -1384,10 +1384,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1419,9 +1419,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1429,9 +1435,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1443,6 +1449,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1451,16 +1464,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1482,29 +1488,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1517,8 +1509,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1532,17 +1541,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1550,20 +1550,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1574,12 +1574,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
@@ -1602,7 +1596,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1614,31 +1650,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1656,7 +1668,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1668,19 +1716,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1692,7 +1740,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1704,85 +1776,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1884,6 +1878,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1918,21 +1927,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1944,13 +1938,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1962,130 +1956,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2100,13 +2094,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -2520,8 +2514,8 @@
   <sheetPr/>
   <dimension ref="A1:H255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A255"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2693,7 +2687,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -2835,7 +2829,7 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>41</v>
